--- a/IR_Transfer/scopus 對應欄位表.xlsx
+++ b/IR_Transfer/scopus 對應欄位表.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mindy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Visual Code\Library\IR_Transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="8568" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EID 去重複" sheetId="2" r:id="rId1"/>
@@ -822,11 +822,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="15" max="15" width="6" customWidth="1"/>
   </cols>
@@ -977,23 +978,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
-    <col min="15" max="16" width="25.375" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
-    <col min="19" max="19" width="14.875" customWidth="1"/>
-    <col min="20" max="20" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="16" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
